--- a/Syllabus/schedule.xlsx
+++ b/Syllabus/schedule.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/avahoffman/Dropbox/JHSPH/intro_to_r/Syllabus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{BE9F3A07-7AE8-5942-9A67-82F1D32C6352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D72B30C-78CA-E845-99CD-652260B5E38E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-15100" windowWidth="37540" windowHeight="21100"/>
+    <workbookView xWindow="28800" yWindow="-15100" windowWidth="37540" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="1" r:id="rId1"/>
@@ -34,9 +34,6 @@
     <t>Intro</t>
   </si>
   <si>
-    <t>R, Rmd</t>
-  </si>
-  <si>
     <t>RStudio</t>
   </si>
   <si>
@@ -242,12 +239,15 @@
   </si>
   <si>
     <t>[Instructions](./Project_Guidelines/Project_Guidelines.html)</t>
+  </si>
+  <si>
+    <t>[R](./Reproducibility/Reproducibility.R), [Rmd](./Reproducibility/index.Rmd)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1093,10 +1093,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1110,19 +1112,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -1133,7 +1135,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -1147,37 +1149,37 @@
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>4</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -1185,34 +1187,34 @@
     </row>
     <row r="9" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="C9" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -1220,28 +1222,28 @@
     </row>
     <row r="12" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="C12" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -1249,34 +1251,34 @@
     </row>
     <row r="15" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C15" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -1284,19 +1286,19 @@
     </row>
     <row r="18" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="C18" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -1304,28 +1306,28 @@
     </row>
     <row r="20" spans="1:5" ht="68" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="C20" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -1333,19 +1335,19 @@
     </row>
     <row r="23" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="C23" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -1353,34 +1355,34 @@
     </row>
     <row r="25" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="C25" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -1388,30 +1390,30 @@
     </row>
     <row r="28" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="C28" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/Syllabus/schedule.xlsx
+++ b/Syllabus/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/avahoffman/Dropbox/JHSPH/intro_to_r/Syllabus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D72B30C-78CA-E845-99CD-652260B5E38E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AACD2BBC-DA63-0346-AA59-3CD78EACD89A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="-15100" windowWidth="37540" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1097,7 +1097,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
